--- a/macro analysis/A4-0910.xlsx
+++ b/macro analysis/A4-0910.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasborn/Desktop/analysis/ASCAM/macro analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBF615B-2833-9C4C-9ADE-87D79E59A5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF0435B-D0C5-8647-AAB8-DC31ABEF672C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27140" yWindow="2000" windowWidth="24060" windowHeight="18640" activeTab="8" xr2:uid="{26444931-4892-1D4A-BC65-AC3562C8D436}"/>
+    <workbookView xWindow="27140" yWindow="2000" windowWidth="24060" windowHeight="18640" activeTab="4" xr2:uid="{26444931-4892-1D4A-BC65-AC3562C8D436}"/>
   </bookViews>
   <sheets>
     <sheet name="IV" sheetId="12" r:id="rId1"/>
@@ -1564,7 +1564,7 @@
   </sheetPr>
   <dimension ref="B3:R48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="K29" sqref="K29:K40"/>
     </sheetView>
   </sheetViews>
@@ -2878,415 +2878,355 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8184D6-44D0-484C-803E-486D079F79AB}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>IV!B8</f>
         <v>Recording number</v>
       </c>
-      <c r="B1">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1">
-        <v>71</v>
-      </c>
-      <c r="D1" s="9">
+      <c r="B1" s="9">
         <v>43</v>
       </c>
-      <c r="E1" s="3">
+      <c r="C1" s="3">
         <v>47</v>
       </c>
-      <c r="F1" s="3">
+      <c r="D1" s="3">
         <v>59</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="G1" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L1">
+      <c r="J1">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
-      <c r="B2" s="7">
-        <v>0.57493222499999996</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.53217733627293484</v>
-      </c>
-      <c r="D2" s="110">
+      <c r="B2" s="110">
         <v>1.2843333619680166</v>
       </c>
+      <c r="C2" s="111">
+        <v>1.1438533426556019</v>
+      </c>
+      <c r="D2" s="111">
+        <v>1.1819001453323204</v>
+      </c>
       <c r="E2" s="111">
-        <v>1.1438533426556019</v>
+        <v>1.4898030658153507</v>
       </c>
       <c r="F2" s="111">
-        <v>1.1819001453323204</v>
+        <v>1.2554489973844811</v>
       </c>
       <c r="G2" s="111">
-        <v>1.4898030658153507</v>
+        <v>0.50742916378714586</v>
       </c>
       <c r="H2" s="111">
-        <v>1.2554489973844811</v>
-      </c>
-      <c r="I2" s="111">
-        <v>0.50742916378714586</v>
-      </c>
-      <c r="J2" s="111">
         <v>0.88301043219076014</v>
       </c>
-      <c r="K2" s="109">
+      <c r="I2" s="109">
         <v>1.9762962962962962</v>
       </c>
-      <c r="L2" s="109">
+      <c r="J2" s="109">
         <v>0.9360576923076922</v>
       </c>
-      <c r="M2" s="109"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K2" s="109"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>80</v>
       </c>
       <c r="B3" s="7">
-        <v>0.57117312200000003</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.45090778498783868</v>
-      </c>
-      <c r="D3" s="7">
         <v>0.63932167449599198</v>
       </c>
+      <c r="C3">
+        <v>0.55191246829025442</v>
+      </c>
+      <c r="D3">
+        <v>0.67654886575001638</v>
+      </c>
       <c r="E3">
-        <v>0.55191246829025442</v>
+        <v>0.72289124168215735</v>
       </c>
       <c r="F3">
-        <v>0.67654886575001638</v>
+        <v>0.47009590235396687</v>
       </c>
       <c r="G3">
-        <v>0.72289124168215735</v>
+        <v>0.17208016586040084</v>
       </c>
       <c r="H3">
-        <v>0.47009590235396687</v>
-      </c>
-      <c r="I3">
-        <v>0.17208016586040084</v>
-      </c>
-      <c r="J3">
         <v>0.29806259314456041</v>
       </c>
-      <c r="K3" s="109">
+      <c r="I3" s="109">
         <v>0.88148148148148153</v>
       </c>
-      <c r="L3" s="109">
+      <c r="J3" s="109">
         <v>0.30240384615384613</v>
       </c>
-      <c r="M3" s="109"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K3" s="109"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="7">
-        <v>0.32728325000000003</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.27135628337623507</v>
-      </c>
-      <c r="D4" s="7">
         <v>0.25297951414477998</v>
       </c>
+      <c r="C4">
+        <v>0.14592998781027963</v>
+      </c>
+      <c r="D4">
+        <v>0.21848890271107574</v>
+      </c>
       <c r="E4">
-        <v>0.14592998781027963</v>
+        <v>0.25216196557019316</v>
       </c>
       <c r="F4">
-        <v>0.21848890271107574</v>
+        <v>0.12327811682650393</v>
       </c>
       <c r="G4">
-        <v>0.25216196557019316</v>
+        <v>2.5397373876986869E-2</v>
       </c>
       <c r="H4">
-        <v>0.12327811682650393</v>
-      </c>
-      <c r="I4">
-        <v>2.5397373876986869E-2</v>
-      </c>
-      <c r="J4">
         <v>0.10447093889716841</v>
       </c>
-      <c r="K4" s="109">
+      <c r="I4" s="109">
         <v>0.12592592592592591</v>
       </c>
-      <c r="L4" s="109">
+      <c r="J4" s="109">
         <v>0.11778846153846154</v>
       </c>
-      <c r="M4" s="109"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K4" s="109"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>40</v>
       </c>
       <c r="B5" s="7">
-        <v>0.33569110200000002</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.2514287779230297</v>
-      </c>
-      <c r="D5" s="7">
         <v>0</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5">
-        <v>0</v>
+        <v>8.6936609283655278E-2</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>8.6936609283655278E-2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
         <v>2.2354694485842028E-2</v>
       </c>
-      <c r="K5" s="109">
+      <c r="I5" s="109">
         <v>0.14814814814814814</v>
       </c>
-      <c r="L5" s="109">
+      <c r="J5" s="109">
         <v>6.0096153846153841E-2</v>
       </c>
-      <c r="M5" s="109"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K5" s="109"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" s="7">
-        <v>0.20287379999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.18318432342362984</v>
-      </c>
-      <c r="D6" s="7">
         <v>0</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
-        <v>0</v>
+        <v>3.574988550338102E-2</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.574988550338102E-2</v>
+        <v>0</v>
       </c>
       <c r="H6">
+        <v>3.7257824143070051E-2</v>
+      </c>
+      <c r="I6" s="109">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="J6" s="109">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>3.7257824143070051E-2</v>
-      </c>
-      <c r="K6" s="109">
-        <v>0</v>
-      </c>
-      <c r="L6" s="109">
-        <v>0</v>
-      </c>
-      <c r="M6" s="109"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K6" s="109"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-1.3470190468493225E-2</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.3470190468493225E-2</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="109">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="109">
         <v>0</v>
       </c>
-      <c r="K7" s="109">
-        <v>0</v>
-      </c>
-      <c r="L7" s="109">
-        <v>0</v>
-      </c>
-      <c r="M7" s="109"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K7" s="109"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>-20</v>
       </c>
       <c r="B8" s="7">
-        <v>-0.15790739200000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-0.14224828207184026</v>
-      </c>
-      <c r="D8" s="7">
         <v>0</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
-        <v>0</v>
+        <v>-0.11024003879414855</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>-0.11024003879414855</v>
+        <v>0</v>
       </c>
       <c r="H8">
+        <v>-1.490312965722802E-2</v>
+      </c>
+      <c r="I8" s="109">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="J8" s="109">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>-1.490312965722802E-2</v>
-      </c>
-      <c r="K8" s="109">
-        <v>0</v>
-      </c>
-      <c r="L8" s="109">
-        <v>0</v>
-      </c>
-      <c r="M8" s="109"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K8" s="109"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>-40</v>
       </c>
       <c r="B9" s="7">
-        <v>-0.32765695</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-0.32179092698857792</v>
-      </c>
-      <c r="D9" s="7">
         <v>-0.19528477192474808</v>
       </c>
+      <c r="C9">
+        <v>-0.26169096679490889</v>
+      </c>
+      <c r="D9">
+        <v>-0.34004623122790856</v>
+      </c>
       <c r="E9">
-        <v>-0.26169096679490889</v>
+        <v>-0.31797731619925107</v>
       </c>
       <c r="F9">
-        <v>-0.34004623122790856</v>
+        <v>-0.11804707933740191</v>
       </c>
       <c r="G9">
-        <v>-0.31797731619925107</v>
+        <v>-8.6385625431928126E-2</v>
       </c>
       <c r="H9">
-        <v>-0.11804707933740191</v>
-      </c>
-      <c r="I9">
-        <v>-8.6385625431928126E-2</v>
-      </c>
-      <c r="J9">
         <v>-0.12667660208643816</v>
       </c>
-      <c r="K9" s="109">
+      <c r="I9" s="109">
         <v>-0.14814814814814814</v>
       </c>
-      <c r="L9" s="109">
+      <c r="J9" s="109">
         <v>-0.22596153846153846</v>
       </c>
-      <c r="M9" s="109"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K9" s="109"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>-60</v>
       </c>
       <c r="B10" s="7">
-        <v>-0.59442145999999996</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-0.47320108293047841</v>
-      </c>
-      <c r="D10" s="7">
         <v>-0.47883821554682449</v>
       </c>
+      <c r="C10">
+        <v>-0.66815408099391982</v>
+      </c>
+      <c r="D10">
+        <v>-0.68659503717038561</v>
+      </c>
       <c r="E10">
-        <v>-0.66815408099391982</v>
+        <v>-0.6465960828686117</v>
       </c>
       <c r="F10">
-        <v>-0.68659503717038561</v>
+        <v>-0.38012205754141237</v>
       </c>
       <c r="G10">
-        <v>-0.6465960828686117</v>
+        <v>-0.35072563925362821</v>
       </c>
       <c r="H10">
-        <v>-0.38012205754141237</v>
-      </c>
-      <c r="I10">
-        <v>-0.35072563925362821</v>
-      </c>
-      <c r="J10">
         <v>-0.4008941877794337</v>
       </c>
-      <c r="K10" s="109">
+      <c r="I10" s="109">
         <v>-0.44444444444444442</v>
       </c>
-      <c r="L10" s="109">
+      <c r="J10" s="109">
         <v>-0.37740384615384615</v>
       </c>
-      <c r="M10" s="109"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K10" s="109"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>-80</v>
       </c>
       <c r="B11" s="7">
         <v>-1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>-1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>-1</v>
       </c>
       <c r="E11">
@@ -3301,61 +3241,46 @@
       <c r="H11">
         <v>-1</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="109">
         <v>-1</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="109">
         <v>-1</v>
       </c>
-      <c r="K11" s="109">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="109">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="109"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K11" s="109"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>-100</v>
       </c>
-      <c r="B12" s="7">
-        <v>-1.457916317</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-1.5042574549233723</v>
-      </c>
-      <c r="D12" s="136">
+      <c r="B12" s="136">
         <v>-1.3380007867002446</v>
       </c>
+      <c r="C12" s="2">
+        <v>-2.4285107675863253</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-1.2150619307069848</v>
+      </c>
       <c r="E12" s="2">
-        <v>-2.4285107675863253</v>
+        <v>-1.2269996497750477</v>
       </c>
       <c r="F12" s="2">
-        <v>-1.2150619307069848</v>
+        <v>-1.8064516129032258</v>
       </c>
       <c r="G12" s="2">
-        <v>-1.2269996497750477</v>
+        <v>-1.9678645473393228</v>
       </c>
       <c r="H12" s="2">
-        <v>-1.8064516129032258</v>
-      </c>
-      <c r="I12" s="2">
-        <v>-1.9678645473393228</v>
-      </c>
-      <c r="J12" s="2">
         <v>-2.2153502235469453</v>
       </c>
-      <c r="K12" s="109">
+      <c r="I12" s="109">
         <v>-4.4866666666666664</v>
       </c>
-      <c r="L12" s="109">
+      <c r="J12" s="109">
         <v>-2.4855769230769234</v>
       </c>
-      <c r="M12" s="109"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
+      <c r="K12" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3369,7 +3294,7 @@
   </sheetPr>
   <dimension ref="A2:AJ329"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
@@ -16289,8 +16214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B34B316-9DDC-6B4E-B3B0-406624F9996C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16341,10 +16266,6 @@
         <f>kinetics!H25</f>
         <v>0.75</v>
       </c>
-      <c r="F2">
-        <f>kinetics!P25</f>
-        <v>-391.10093005974278</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="96">
@@ -16418,10 +16339,6 @@
       <c r="E5" s="26">
         <f>kinetics!H28</f>
         <v>0.89</v>
-      </c>
-      <c r="F5">
-        <f>kinetics!P28</f>
-        <v>-158.32283024744325</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -19941,7 +19858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401DFDA-DDF2-C447-9CC1-BA716297BB95}">
   <dimension ref="A1:D253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
